--- a/Result/ARIMA/Service/SGP.xlsx
+++ b/Result/ARIMA/Service/SGP.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>59.89965055509169</v>
+        <v>0.2920288646446094</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>60.50606220347918</v>
+        <v>60.19165024817233</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>61.81918237142892</v>
+        <v>60.68724618388201</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>60.6931525566241</v>
+        <v>61.65551259956392</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>60.03225466326707</v>
+        <v>61.38057633618721</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>63.14080288183875</v>
+        <v>60.88014466007753</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>62.61728866032323</v>
+        <v>62.50031043489942</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>62.85623332857661</v>
+        <v>62.86105927192883</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>61.54086573102785</v>
+        <v>63.1502531235195</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>62.33491277718424</v>
+        <v>62.49684504316549</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>64.18261285275129</v>
+        <v>62.69374659698498</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>62.81721558182291</v>
+        <v>63.86041174257299</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>62.46169933655361</v>
+        <v>63.5396137681372</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>62.00753448369179</v>
+        <v>63.19842050481424</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>61.83283965051876</v>
+        <v>62.7908619456791</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>61.61832443780616</v>
+        <v>62.5200994621387</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>62.07853748641156</v>
+        <v>62.28237950542154</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>62.62999077115974</v>
+        <v>62.45466113112003</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>62.7222601305176</v>
+        <v>62.84968760343227</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>63.06928086699373</v>
+        <v>63.0668590460325</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>60.66451974372163</v>
+        <v>63.36031061231016</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>63.59363423451197</v>
+        <v>62.06869389270587</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>63.97695568024015</v>
+        <v>63.25655079307963</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>64.34872520763541</v>
+        <v>63.97178237412056</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>63.07257512870758</v>
+        <v>64.48524675914091</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>64.07318437592549</v>
+        <v>63.9473999774225</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>64.87685404905513</v>
+        <v>64.31332103807449</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>66.04014850149031</v>
+        <v>64.93639804700086</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>68.34796175535224</v>
+        <v>65.87682644208832</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>68.00606952330871</v>
+        <v>67.62052671512409</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>67.84351708253806</v>
+        <v>68.13904316559548</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>69.02312362626182</v>
+        <v>68.25746487772781</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>69.20862704581847</v>
+        <v>68.9992808939968</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>70.76230615872412</v>
+        <v>69.41429040701992</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>70.34532579316748</v>
+        <v>70.49821274439599</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>69.950933310914</v>
+        <v>70.70042798587588</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>70.66365925256602</v>
+        <v>70.55216530333422</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>59.89965055509169</v>
+        <v>0.2492337149595033</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>60.50606220347918</v>
+        <v>60.14885158944202</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>61.81918237142892</v>
+        <v>60.62293057966663</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>60.6931525566241</v>
+        <v>61.55458865536355</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>60.03225466326707</v>
+        <v>61.32201715878415</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>63.14080288183875</v>
+        <v>60.8526910385885</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>62.61728866032323</v>
+        <v>62.37571184797801</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>62.85623332857661</v>
+        <v>62.75941055839316</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>61.54086573102785</v>
+        <v>63.06253556603652</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>62.33491277718424</v>
+        <v>62.46481690134715</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>64.18261285275129</v>
+        <v>62.64174683644234</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>62.81721558182291</v>
+        <v>63.74861623321431</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>62.46169933655361</v>
+        <v>63.47943862052234</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>62.00753448369179</v>
+        <v>63.16220551154984</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>61.83283965051876</v>
+        <v>62.76875711821498</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>61.61832443780616</v>
+        <v>62.49706548161226</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>62.07853748641156</v>
+        <v>62.25719785703456</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>62.62999077115974</v>
+        <v>62.40699041443268</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>62.7222601305176</v>
+        <v>62.78034462422917</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>63.06928086699373</v>
+        <v>62.99724890165931</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>60.66451974372163</v>
+        <v>63.28657512280402</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>63.59363423451197</v>
+        <v>62.07639049459108</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>63.97695568024015</v>
+        <v>63.17011184423929</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>64.34872520763541</v>
+        <v>63.86842939767492</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>63.07257512870758</v>
+        <v>64.38499252176784</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1235,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>64.07318437592549</v>
+        <v>63.90374356553335</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>64.87685404905513</v>
+        <v>64.24728689299801</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>66.04014850149031</v>
+        <v>64.84693344177424</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>68.34796175535224</v>
+        <v>65.76030261298358</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>68.00606952330871</v>
+        <v>67.44980995769849</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>67.84351708253806</v>
+        <v>68.00865399595361</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>69.02312362626182</v>
+        <v>68.16597361844346</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>69.20862704581847</v>
+        <v>68.89229124789233</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>70.76230615872412</v>
+        <v>69.3175953348884</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>70.34532579316748</v>
+        <v>70.3709453525415</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>69.950933310914</v>
+        <v>70.6059193935091</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>70.66365925256602</v>
+        <v>70.4905922715436</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>70.34711025610673</v>
+        <v>70.83615390112938</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1365,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>69.3553782524158</v>
+        <v>70.81318922094754</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>70.79420381754008</v>
+        <v>70.25101518101144</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>71.66443327187299</v>
+        <v>70.80258402827855</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>69.44880106361298</v>
+        <v>71.53151722067288</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
